--- a/src/ext/plm/change/model/template.xlsx
+++ b/src/ext/plm/change/model/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F525F-C4CC-4371-B89A-E9A4B804E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变更通知单" sheetId="5" r:id="rId1"/>
@@ -90,22 +91,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>产成品</t>
+  </si>
+  <si>
+    <t>在制品</t>
+  </si>
+  <si>
     <t>未清PO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在制品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产成品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -233,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -248,9 +246,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,9 +282,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,128 +527,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R964"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.08203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.08203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="4.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="4.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.58203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="6" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" style="2" customWidth="1"/>
     <col min="18" max="18" width="13.75" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="21.95" customHeight="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:18" ht="22" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="10" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" ht="21.95" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:18" ht="22" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" ht="21.95" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:18" ht="22" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="27.75" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -677,7 +669,7 @@
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -692,7 +684,7 @@
       <c r="K5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -701,14 +693,14 @@
       <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>14</v>
@@ -1689,6 +1681,17 @@
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{FCBD7FBD-18DD-4FCF-AB8B-4CB9D147DA78}">
+      <formula1>"数量为0，无需处理,用完为止,供应商加工，取消供应商未生产PO,通用料，无需处理,供应商已完成PO,正常入料,其他（详见备注）,通知供应商报废，取消供应商未生产PO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{800FC9A1-8D32-4564-B725-9A7CF60D0B89}">
+      <formula1>"废弃,数量为0，无需处理,用完为止,通用料，无需处理,其他（详见备注）,隔离，待处理,加工后再使用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{D9565647-F277-4F91-AE6D-3C17AF67B6DB}">
+      <formula1>"废弃,数量为0，无需处理,用完为止,通用料，无需处理,其他（详见备注）,隔离，待处理,加工后再使用"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
